--- a/database/relatorio/PE 90004-2024/CALMED_DISTRIBUIDORA_E_SERVICOS_TECNICOS_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/CALMED_DISTRIBUIDORA_E_SERVICOS_TECNICOS_LTDA/relacao_itens.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,24 +446,41 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>Descrição Detalhada: Turbina extratorque de alta rotação tipo push botton. Características gerais: turbina extratorque; rolamentos de cerâmica; rotores balanceados; biossegurança: esterilizável até 135ºc. Durabilidade garantida por até 1.000 ciclos de esterilização. A superfície lisa facilita a assepsia dos instrumentos. Garantia: 12 meses. Spray triplo: rolamento de cerâmica; acoplamento borden; sistema de troca broca: press-button (pb). Rotação máxima: 380.000 rpm. Torque: 0,13 ncm. (garantia mínima de 1 ano).</t>
+          <t>Turbina extratorque de alta rotação tipo push botton. Características gerais: turbina extratorque; rolamentos de cerâmica; rotores balanceados; biossegurança: esterilizável até 135ºc. Durabilidade garantida por até 1.000 ciclos de esterilização. A superfície lisa facilita a assepsia dos instrumentos. Garantia: 12 meses. Spray triplo: rolamento de cerâmica; acoplamento borden; sistema de troca broca: press-button (pb). Rotação máxima: 380.000 rpm. Torque: 0,13 ncm. (garantia mínima de 1 ano).</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>Quantidade: 10.0</t>
+          <t>UF: Unidade</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Valor Unitário: 229.0</t>
+          <t>Marca:  DENTEMED</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>Valor Total: 2290.0</t>
+          <t>Modelo:  PRIME CX 207</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>Quantidade: 10</t>
+        </is>
+      </c>
+      <c r="B4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Unitário: R$ 229,00</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>Valor Total: R$ 2.290,00</t>
         </is>
       </c>
     </row>

--- a/database/relatorio/PE 90004-2024/CALMED_DISTRIBUIDORA_E_SERVICOS_TECNICOS_LTDA/relacao_itens.xlsx
+++ b/database/relatorio/PE 90004-2024/CALMED_DISTRIBUIDORA_E_SERVICOS_TECNICOS_LTDA/relacao_itens.xlsx
@@ -439,7 +439,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Item: 162 - CANETA ALTA ROTAÇÃO (437552)</t>
+          <t>Item 162 - CANETA ALTA ROTAÇÃO (437552)</t>
         </is>
       </c>
     </row>
